--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,21 +419,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>🍕</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2" t="str">
+        <v>food</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45961.02103137731</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>💸</v>
       </c>
-      <c r="B2">
-        <v>234567</v>
-      </c>
-      <c r="C2" t="str">
-        <v>sdfgb</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45960.70942482639</v>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3" t="str">
+        <v>food</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45961.008311631944</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,35 +419,21 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>🍕</v>
+        <v>💸</v>
       </c>
       <c r="B2">
         <v>200</v>
       </c>
       <c r="C2" t="str">
-        <v>food</v>
+        <v>tgytgy</v>
       </c>
       <c r="D2" s="1">
-        <v>45961.02103137731</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>💸</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3" t="str">
-        <v>food</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45961.008311631944</v>
+        <v>45961.73639341435</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>